--- a/Light Industries.xlsx
+++ b/Light Industries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8552247-3DEE-471B-8E97-22D8EB81C180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0C2549-6B7C-42BB-92BE-5A8B6C86B10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{889CF6B0-597D-4700-A001-EA90E2A72A8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{889CF6B0-597D-4700-A001-EA90E2A72A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,12 +102,17 @@
       <name val="Seaford"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Seaford"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,18 +127,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -167,11 +166,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -187,31 +195,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBD3C58-DEB0-4604-B544-B8E9ED53A085}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -612,10 +618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1A9241-99A5-402B-8ABB-1A97B30E3CC6}">
-  <dimension ref="A1:AG16"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,207 +629,130 @@
     <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="6" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:23" s="6" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="8"/>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>2020</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>2030</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>2040</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>2050</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13">
         <v>0.3</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>0.63</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>0.95</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-    </row>
-    <row r="4" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>0.8</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>0.95</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-    </row>
-    <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>0.2</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>0.4</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>0.53</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>0.65</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-    </row>
-    <row r="6" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -839,220 +768,213 @@
       <c r="E6" s="16">
         <v>0.76</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-    </row>
-    <row r="7" spans="1:33" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-    </row>
-    <row r="8" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-    </row>
-    <row r="9" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-    </row>
-    <row r="10" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-    </row>
-    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-    </row>
-    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-    </row>
-    <row r="13" spans="1:33" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Light Industries.xlsx
+++ b/Light Industries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0C2549-6B7C-42BB-92BE-5A8B6C86B10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F53393-B938-4532-A801-9C118B0387D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{889CF6B0-597D-4700-A001-EA90E2A72A8E}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>IEA</t>
   </si>
   <si>
-    <t>Light industry accounts for approximately 8% of global industrial emissions and encompasses various sectors, including food, machinery, textiles, vehicles, timber, construction, and mining. Emissions are easier to abate in the power sector than in heavy industry due to lower heat requirements, but deployment is complex due to the large number of dispersed sites. While progress has been made through the use of heat pumps and energy efficiency, emissions are only falling by 1.6% per year, far below the 6% annual reduction needed to align with the Net Zero by 2050 scenario.</t>
-  </si>
-  <si>
     <t>Impact and Outcome Metrics</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Absolute gross CO2 emissions reduction rate, (relative to 2020)</t>
+  </si>
+  <si>
+    <t>Light industry accounts for approximately 8% of global industrial emissions and encompasses various sectors, including food, machinery, textiles, vehicles, timber, construction, and mining. While progress has been made through the use of heat pumps and energy efficiency, emissions are only falling by 1.6% per year, far below the 6% annual reduction needed to align with the Net Zero by 2050 scenario.</t>
   </si>
 </sst>
 </file>
@@ -202,9 +202,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -218,6 +215,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,7 +621,7 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,18 +629,18 @@
     <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+    <row r="1" spans="1:23" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="8"/>
@@ -653,19 +653,19 @@
       <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="11">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10">
         <v>2020</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>2030</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>2040</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>2050</v>
       </c>
       <c r="F2" s="7"/>
@@ -679,17 +679,17 @@
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12">
         <v>0.3</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>0.63</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>0.95</v>
       </c>
       <c r="F3" s="7"/>
@@ -703,17 +703,17 @@
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13">
+      <c r="A4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>0.8</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.95</v>
       </c>
       <c r="F4" s="7"/>
@@ -727,19 +727,19 @@
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13">
         <v>0.2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>0.4</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0.53</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>0.65</v>
       </c>
       <c r="F5" s="7"/>
@@ -753,19 +753,19 @@
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="A6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="15">
         <v>0.43</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>0.53</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>0.65</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>0.76</v>
       </c>
       <c r="F6" s="7"/>

--- a/Light Industries.xlsx
+++ b/Light Industries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F53393-B938-4532-A801-9C118B0387D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE09131-8EF8-40D5-902D-2EA04A374C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{889CF6B0-597D-4700-A001-EA90E2A72A8E}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,12 +102,7 @@
       <name val="Seaford"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Seaford"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Seaford"/>
     </font>
@@ -179,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -200,24 +195,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,7 +613,7 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,20 +622,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="8"/>
+      <c r="L1" s="9"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -652,7 +644,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -678,7 +670,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
@@ -702,7 +694,7 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -726,7 +718,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
@@ -978,7 +970,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Light Industries.xlsx
+++ b/Light Industries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE09131-8EF8-40D5-902D-2EA04A374C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D026F77-FF34-4731-8B7E-59BBE3779E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{889CF6B0-597D-4700-A001-EA90E2A72A8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{889CF6B0-597D-4700-A001-EA90E2A72A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>Metric</t>
   </si>
   <si>
-    <t>IEA</t>
-  </si>
-  <si>
     <t>Impact and Outcome Metrics</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Light industry accounts for approximately 8% of global industrial emissions and encompasses various sectors, including food, machinery, textiles, vehicles, timber, construction, and mining. While progress has been made through the use of heat pumps and energy efficiency, emissions are only falling by 1.6% per year, far below the 6% annual reduction needed to align with the Net Zero by 2050 scenario.</t>
+  </si>
+  <si>
+    <t>SBTi pathway (IEA)</t>
   </si>
 </sst>
 </file>
@@ -194,9 +194,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -210,6 +207,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,13 +527,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBD3C58-DEB0-4604-B544-B8E9ED53A085}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -569,7 +569,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -612,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1A9241-99A5-402B-8ABB-1A97B30E3CC6}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -622,20 +622,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="A1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -645,19 +645,19 @@
       <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9">
         <v>2020</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>2030</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>2040</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>2050</v>
       </c>
       <c r="F2" s="7"/>
@@ -671,17 +671,17 @@
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11">
         <v>0.3</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>0.63</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>0.95</v>
       </c>
       <c r="F3" s="7"/>
@@ -695,17 +695,17 @@
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.8</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>0.95</v>
       </c>
       <c r="F4" s="7"/>
@@ -719,19 +719,19 @@
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="13">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12">
         <v>0.2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>0.4</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>0.53</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>0.65</v>
       </c>
       <c r="F5" s="7"/>
@@ -745,19 +745,19 @@
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="A6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14">
         <v>0.43</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>0.53</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>0.65</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>0.76</v>
       </c>
       <c r="F6" s="7"/>
